--- a/biology/Médecine/Françoise_Meunier/Françoise_Meunier.xlsx
+++ b/biology/Médecine/Françoise_Meunier/Françoise_Meunier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Meunier</t>
+          <t>Françoise_Meunier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise, baronne[1] Meunier est une professeur oncologue belge. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise, baronne Meunier est une professeur oncologue belge. 
 Elle est docteur en médecine (ULB); maître en oncologie et en médecine interne; agrégée de l'Enseignement Supérieur.
 Elle fut chef de service maladies infectieuses de l'Institut Jules Bordet, avant de devenir directeur-général de l'Organisation européenne pour la recherche et le traitement du cancer de 1991 à 2015.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Meunier</t>
+          <t>Françoise_Meunier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,18 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Prix Fulbright (1977)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Prix Fulbright (1977)
 Research Fellow du Memorial Sloan-Kettering Cancer Center , New York (1977 et 1978)
 Fellow du Royal College of Physicians (FRCP) – Grande-Bretagne (1994)
 Fellow de la Faculty of Pharmaceutical Medicine (Royal Colleges of Physicians) – Grande-Bretagne (1995)
 Membre du Collège belge de Médecine Pharmaceutique (BCPM) (2001)
-Lauréate du Prix Femmes d'Europe 2004-2005 [1]
+Lauréate du Prix Femmes d'Europe 2004-2005 
 Membre de l' Académie Royale de Médecine de Belgique (depuis 2006)
-Concession de noblesse personnelle et du titre personnel de baronne, accordée par le roi Albert II en 2008[1].
+Concession de noblesse personnelle et du titre personnel de baronne, accordée par le roi Albert II en 2008.
 Prix Pezcoller-ECCO pour sa contribution à l'Oncologie (2009)</t>
         </is>
       </c>
